--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83289.13</v>
+        <v>226750.01</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11898.45</v>
+        <v>13338.24</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8195.719999999999</v>
+        <v>8558.15</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.23</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13223.9</v>
+        <v>10434.64</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13864.21</v>
+        <v>11080.63</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4052.22</v>
+        <v>4045.52</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2767.35</v>
+        <v>2771.4</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41088.5</v>
+        <v>41090.76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16361.61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24460.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>359.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>974.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>71634.08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>503.73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10123.15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14348.55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6366.32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3500.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226750.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -457,177 +457,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13338.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8558.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Fima PB Acciones</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>135.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10434.64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>FBA Calificado</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11080.63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Pionero Acciones</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4045.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Adcap</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2771.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Gainvest</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>41090.76</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>CMA acciones</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>16361.61</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Delta acciones</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24460.78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Delta inter</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>359.83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Delta Latam</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>974.76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
           <t>Delta Recursos</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>71634.08</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Lombardi</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>503.73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>MAF</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10123.15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Superfondo</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14348.55</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Supergestion</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6366.32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Goal acciones plus</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3500.29</v>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,245 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2774.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2771.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
+        <v>9011.450000000001</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11487.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14070.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>975.11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>974.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Delta Recursos</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B6" t="n">
+        <v>71667.56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71663.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24493.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>359.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10229.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10260.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10134.02</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10142.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fima PB Acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gainvest</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41091.51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41083.81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3499.96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3501.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>504.35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>704.72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10123.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10125.97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4047.28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4052.68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14361.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14407.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13428.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13915.54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>214858.13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>208733.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,233 +443,181 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2774.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2771.33</v>
+        <v>218130.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9011.450000000001</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>13633.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11487.33</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14070.6</v>
+        <v>2771.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>974.99</v>
+        <v>9397.280000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71667.56</v>
-      </c>
-      <c r="C6" t="n">
-        <v>71663.11</v>
+        <v>14070.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24493.8</v>
-      </c>
-      <c r="C7" t="n">
         <v>24500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>360.15</v>
-      </c>
-      <c r="C8" t="n">
         <v>359.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10229.95</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10260.35</v>
+        <v>974.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10134.02</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10142.32</v>
+        <v>71663.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.56</v>
-      </c>
-      <c r="C11" t="n">
-        <v>114.67</v>
+        <v>10260.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41091.51</v>
-      </c>
-      <c r="C12" t="n">
-        <v>41083.81</v>
+        <v>10142.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3499.96</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3501.03</v>
+        <v>114.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>504.35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>704.72</v>
+        <v>41083.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10123.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10125.97</v>
+        <v>3501.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4047.28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4052.68</v>
+        <v>704.72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14361.25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14407.88</v>
+        <v>10125.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13428.63</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13915.54</v>
+        <v>4052.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>214858.13</v>
-      </c>
-      <c r="C19" t="n">
-        <v>208733.04</v>
+        <v>14407.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,185 +439,232 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218130.32</v>
+        <v>2771.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3769.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13633.15</v>
+        <v>9397.280000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9965.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2771.33</v>
+        <v>14070.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14055.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9397.280000000001</v>
-      </c>
+        <v>24500</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14070.6</v>
-      </c>
+        <v>359.58</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24500</v>
-      </c>
+        <v>974.99</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.58</v>
-      </c>
+        <v>71663.11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>974.99</v>
-      </c>
+        <v>10260.35</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71663.11</v>
-      </c>
+        <v>10142.32</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10260.35</v>
+        <v>114.67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10142.32</v>
+        <v>41083.81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41102.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.67</v>
+        <v>3501.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3499.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41083.81</v>
+        <v>704.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>695.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3501.03</v>
+        <v>10125.97</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10122.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.72</v>
+        <v>4052.68</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11639.92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10125.97</v>
+        <v>14407.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33192.71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4052.68</v>
+        <v>13633.15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12815.81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14407.88</v>
+        <v>218130.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>128158.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>3769.95</v>
       </c>
+      <c r="D2" t="n">
+        <v>3768.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>9965.25</v>
       </c>
+      <c r="D3" t="n">
+        <v>9951.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>14055.35</v>
       </c>
+      <c r="D4" t="n">
+        <v>14068.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
         <v>24500</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>24452.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
         <v>359.58</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>360.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +536,9 @@
         <v>974.99</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>975.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -527,6 +550,9 @@
         <v>71663.11</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>68160.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -538,6 +564,9 @@
         <v>10260.35</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3770.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -549,6 +578,9 @@
         <v>10142.32</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>3811.32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -562,6 +594,9 @@
       <c r="C11" t="n">
         <v>114.8</v>
       </c>
+      <c r="D11" t="n">
+        <v>118.85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -575,6 +610,9 @@
       <c r="C12" t="n">
         <v>41102.1</v>
       </c>
+      <c r="D12" t="n">
+        <v>21091.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -588,6 +626,9 @@
       <c r="C13" t="n">
         <v>3499.52</v>
       </c>
+      <c r="D13" t="n">
+        <v>3500.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -601,6 +642,9 @@
       <c r="C14" t="n">
         <v>695.95</v>
       </c>
+      <c r="D14" t="n">
+        <v>701.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -614,6 +658,9 @@
       <c r="C15" t="n">
         <v>10122.59</v>
       </c>
+      <c r="D15" t="n">
+        <v>10121.51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -627,6 +674,9 @@
       <c r="C16" t="n">
         <v>11639.92</v>
       </c>
+      <c r="D16" t="n">
+        <v>11644.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -640,6 +690,9 @@
       <c r="C17" t="n">
         <v>33192.71</v>
       </c>
+      <c r="D17" t="n">
+        <v>49429.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -653,6 +706,9 @@
       <c r="C18" t="n">
         <v>12815.81</v>
       </c>
+      <c r="D18" t="n">
+        <v>14120.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -665,6 +721,9 @@
       </c>
       <c r="C19" t="n">
         <v>128158.14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>225924.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>3768.99</v>
       </c>
+      <c r="E2" t="n">
+        <v>3770.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>9951.18</v>
       </c>
+      <c r="E3" t="n">
+        <v>10369.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>14068.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14053.44</v>
       </c>
     </row>
     <row r="5">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>24452.53</v>
       </c>
+      <c r="E5" t="n">
+        <v>24481.61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -525,6 +542,9 @@
       <c r="D6" t="n">
         <v>360.02</v>
       </c>
+      <c r="E6" t="n">
+        <v>359.81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="D7" t="n">
         <v>975.02</v>
       </c>
+      <c r="E7" t="n">
+        <v>974.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -553,6 +576,9 @@
       <c r="D8" t="n">
         <v>68160.25</v>
       </c>
+      <c r="E8" t="n">
+        <v>68162.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -567,6 +593,9 @@
       <c r="D9" t="n">
         <v>3770.09</v>
       </c>
+      <c r="E9" t="n">
+        <v>4297.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -581,6 +610,9 @@
       <c r="D10" t="n">
         <v>3811.32</v>
       </c>
+      <c r="E10" t="n">
+        <v>4073.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -597,6 +629,9 @@
       <c r="D11" t="n">
         <v>118.85</v>
       </c>
+      <c r="E11" t="n">
+        <v>126.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -613,6 +648,9 @@
       <c r="D12" t="n">
         <v>21091.21</v>
       </c>
+      <c r="E12" t="n">
+        <v>21088.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -629,6 +667,9 @@
       <c r="D13" t="n">
         <v>3500.21</v>
       </c>
+      <c r="E13" t="n">
+        <v>3500.98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -645,6 +686,9 @@
       <c r="D14" t="n">
         <v>701.39</v>
       </c>
+      <c r="E14" t="n">
+        <v>699.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -661,6 +705,9 @@
       <c r="D15" t="n">
         <v>10121.51</v>
       </c>
+      <c r="E15" t="n">
+        <v>10121.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -677,6 +724,9 @@
       <c r="D16" t="n">
         <v>11644.28</v>
       </c>
+      <c r="E16" t="n">
+        <v>18283.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -693,6 +743,9 @@
       <c r="D17" t="n">
         <v>49429.1</v>
       </c>
+      <c r="E17" t="n">
+        <v>106275.43</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -709,6 +762,9 @@
       <c r="D18" t="n">
         <v>14120.28</v>
       </c>
+      <c r="E18" t="n">
+        <v>18164.98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -724,6 +780,9 @@
       </c>
       <c r="D19" t="n">
         <v>225924.56</v>
+      </c>
+      <c r="E19" t="n">
+        <v>290639.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>3770.5</v>
       </c>
+      <c r="F2" t="n">
+        <v>3771.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>10369.88</v>
       </c>
+      <c r="F3" t="n">
+        <v>11007.93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>14053.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13629.54</v>
       </c>
     </row>
     <row r="5">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>24481.61</v>
       </c>
+      <c r="F5" t="n">
+        <v>24474.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +562,9 @@
       <c r="E6" t="n">
         <v>359.81</v>
       </c>
+      <c r="F6" t="n">
+        <v>360.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>974.99</v>
       </c>
+      <c r="F7" t="n">
+        <v>976.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -579,6 +602,9 @@
       <c r="E8" t="n">
         <v>68162.52</v>
       </c>
+      <c r="F8" t="n">
+        <v>66925.71000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -596,6 +622,9 @@
       <c r="E9" t="n">
         <v>4297.37</v>
       </c>
+      <c r="F9" t="n">
+        <v>4270.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -613,6 +642,9 @@
       <c r="E10" t="n">
         <v>4073.02</v>
       </c>
+      <c r="F10" t="n">
+        <v>4056.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -632,6 +664,9 @@
       <c r="E11" t="n">
         <v>126.72</v>
       </c>
+      <c r="F11" t="n">
+        <v>127.42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -651,6 +686,9 @@
       <c r="E12" t="n">
         <v>21088.85</v>
       </c>
+      <c r="F12" t="n">
+        <v>21094.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -670,6 +708,9 @@
       <c r="E13" t="n">
         <v>3500.98</v>
       </c>
+      <c r="F13" t="n">
+        <v>3500.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +730,9 @@
       <c r="E14" t="n">
         <v>699.95</v>
       </c>
+      <c r="F14" t="n">
+        <v>699.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -708,6 +752,9 @@
       <c r="E15" t="n">
         <v>10121.16</v>
       </c>
+      <c r="F15" t="n">
+        <v>10127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -727,6 +774,9 @@
       <c r="E16" t="n">
         <v>18283.45</v>
       </c>
+      <c r="F16" t="n">
+        <v>18311.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -746,6 +796,9 @@
       <c r="E17" t="n">
         <v>106275.43</v>
       </c>
+      <c r="F17" t="n">
+        <v>106441.65</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -765,6 +818,9 @@
       <c r="E18" t="n">
         <v>18164.98</v>
       </c>
+      <c r="F18" t="n">
+        <v>18110.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -783,6 +839,9 @@
       </c>
       <c r="E19" t="n">
         <v>290639.68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>289773.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>3771.21</v>
       </c>
+      <c r="G2" t="n">
+        <v>3765.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>11007.93</v>
       </c>
+      <c r="G3" t="n">
+        <v>11009.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>13629.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13231.61</v>
       </c>
     </row>
     <row r="5">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>24474.7</v>
       </c>
+      <c r="G5" t="n">
+        <v>24477.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +582,9 @@
       <c r="F6" t="n">
         <v>360.05</v>
       </c>
+      <c r="G6" t="n">
+        <v>360.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>976.34</v>
       </c>
+      <c r="G7" t="n">
+        <v>974.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,6 +628,9 @@
       <c r="F8" t="n">
         <v>66925.71000000001</v>
       </c>
+      <c r="G8" t="n">
+        <v>66917.64999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -625,6 +651,9 @@
       <c r="F9" t="n">
         <v>4270.12</v>
       </c>
+      <c r="G9" t="n">
+        <v>6766.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -645,6 +674,9 @@
       <c r="F10" t="n">
         <v>4056.73</v>
       </c>
+      <c r="G10" t="n">
+        <v>6616.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -667,6 +699,9 @@
       <c r="F11" t="n">
         <v>127.42</v>
       </c>
+      <c r="G11" t="n">
+        <v>121.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -689,6 +724,9 @@
       <c r="F12" t="n">
         <v>21094.04</v>
       </c>
+      <c r="G12" t="n">
+        <v>21080.78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -711,6 +749,9 @@
       <c r="F13" t="n">
         <v>3500.17</v>
       </c>
+      <c r="G13" t="n">
+        <v>3499.91</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +774,9 @@
       <c r="F14" t="n">
         <v>699.78</v>
       </c>
+      <c r="G14" t="n">
+        <v>702.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -755,6 +799,9 @@
       <c r="F15" t="n">
         <v>10127</v>
       </c>
+      <c r="G15" t="n">
+        <v>10126.27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -777,6 +824,9 @@
       <c r="F16" t="n">
         <v>18311.01</v>
       </c>
+      <c r="G16" t="n">
+        <v>18294.15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -799,6 +849,9 @@
       <c r="F17" t="n">
         <v>106441.65</v>
       </c>
+      <c r="G17" t="n">
+        <v>106649.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -821,6 +874,9 @@
       <c r="F18" t="n">
         <v>18110.84</v>
       </c>
+      <c r="G18" t="n">
+        <v>18412.13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -842,6 +898,9 @@
       </c>
       <c r="F19" t="n">
         <v>289773.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>294594.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3765.86</v>
       </c>
+      <c r="H2" t="n">
+        <v>3770.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>11009.17</v>
       </c>
+      <c r="H3" t="n">
+        <v>11823.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>13231.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13223.28</v>
       </c>
     </row>
     <row r="5">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>24477.1</v>
       </c>
+      <c r="H5" t="n">
+        <v>24464.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +602,9 @@
       <c r="G6" t="n">
         <v>360.25</v>
       </c>
+      <c r="H6" t="n">
+        <v>359.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>974.88</v>
       </c>
+      <c r="H7" t="n">
+        <v>975.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -631,6 +654,9 @@
       <c r="G8" t="n">
         <v>66917.64999999999</v>
       </c>
+      <c r="H8" t="n">
+        <v>66945.00999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -654,6 +680,9 @@
       <c r="G9" t="n">
         <v>6766.86</v>
       </c>
+      <c r="H9" t="n">
+        <v>11112.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -677,6 +706,9 @@
       <c r="G10" t="n">
         <v>6616.21</v>
       </c>
+      <c r="H10" t="n">
+        <v>10080.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -702,6 +734,9 @@
       <c r="G11" t="n">
         <v>121.25</v>
       </c>
+      <c r="H11" t="n">
+        <v>115.74</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -727,6 +762,9 @@
       <c r="G12" t="n">
         <v>21080.78</v>
       </c>
+      <c r="H12" t="n">
+        <v>21847.26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -752,6 +790,9 @@
       <c r="G13" t="n">
         <v>3499.91</v>
       </c>
+      <c r="H13" t="n">
+        <v>3499.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +818,9 @@
       <c r="G14" t="n">
         <v>702.95</v>
       </c>
+      <c r="H14" t="n">
+        <v>705.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -802,6 +846,9 @@
       <c r="G15" t="n">
         <v>10126.27</v>
       </c>
+      <c r="H15" t="n">
+        <v>10128.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -827,6 +874,9 @@
       <c r="G16" t="n">
         <v>18294.15</v>
       </c>
+      <c r="H16" t="n">
+        <v>18302.37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -852,6 +902,9 @@
       <c r="G17" t="n">
         <v>106649.24</v>
       </c>
+      <c r="H17" t="n">
+        <v>106468.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -877,6 +930,9 @@
       <c r="G18" t="n">
         <v>18412.13</v>
       </c>
+      <c r="H18" t="n">
+        <v>18988.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -901,6 +957,9 @@
       </c>
       <c r="G19" t="n">
         <v>294594.14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>303820.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>3770.42</v>
       </c>
+      <c r="I2" t="n">
+        <v>3771.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>11823.75</v>
       </c>
+      <c r="I3" t="n">
+        <v>13352.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>13223.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13217.99</v>
       </c>
     </row>
     <row r="5">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>24464.11</v>
       </c>
+      <c r="I5" t="n">
+        <v>24474.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +622,9 @@
       <c r="H6" t="n">
         <v>359.37</v>
       </c>
+      <c r="I6" t="n">
+        <v>360.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>975.61</v>
       </c>
+      <c r="I7" t="n">
+        <v>976.4299999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,6 +680,9 @@
       <c r="H8" t="n">
         <v>66945.00999999999</v>
       </c>
+      <c r="I8" t="n">
+        <v>66959.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -683,6 +709,9 @@
       <c r="H9" t="n">
         <v>11112.04</v>
       </c>
+      <c r="I9" t="n">
+        <v>12120.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -709,6 +738,9 @@
       <c r="H10" t="n">
         <v>10080.93</v>
       </c>
+      <c r="I10" t="n">
+        <v>11011.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -737,6 +769,9 @@
       <c r="H11" t="n">
         <v>115.74</v>
       </c>
+      <c r="I11" t="n">
+        <v>118.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -765,6 +800,9 @@
       <c r="H12" t="n">
         <v>21847.26</v>
       </c>
+      <c r="I12" t="n">
+        <v>21111.83</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -793,6 +831,9 @@
       <c r="H13" t="n">
         <v>3499.03</v>
       </c>
+      <c r="I13" t="n">
+        <v>3501.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +862,9 @@
       <c r="H14" t="n">
         <v>705.49</v>
       </c>
+      <c r="I14" t="n">
+        <v>697.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -849,6 +893,9 @@
       <c r="H15" t="n">
         <v>10128.26</v>
       </c>
+      <c r="I15" t="n">
+        <v>10125.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -877,6 +924,9 @@
       <c r="H16" t="n">
         <v>18302.37</v>
       </c>
+      <c r="I16" t="n">
+        <v>18270.86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -905,6 +955,9 @@
       <c r="H17" t="n">
         <v>106468.31</v>
       </c>
+      <c r="I17" t="n">
+        <v>106556.11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -933,6 +986,9 @@
       <c r="H18" t="n">
         <v>18988.81</v>
       </c>
+      <c r="I18" t="n">
+        <v>19164.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -960,6 +1016,9 @@
       </c>
       <c r="H19" t="n">
         <v>303820.98</v>
+      </c>
+      <c r="I19" t="n">
+        <v>306626.6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>3771.49</v>
       </c>
+      <c r="J2" t="n">
+        <v>3765.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>13352.55</v>
       </c>
+      <c r="J3" t="n">
+        <v>13324.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>13217.99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13232.84</v>
       </c>
     </row>
     <row r="5">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>24474.85</v>
       </c>
+      <c r="J5" t="n">
+        <v>24488.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +642,9 @@
       <c r="I6" t="n">
         <v>360.35</v>
       </c>
+      <c r="J6" t="n">
+        <v>359.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>976.4299999999999</v>
       </c>
+      <c r="J7" t="n">
+        <v>974.37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -683,6 +706,9 @@
       <c r="I8" t="n">
         <v>66959.52</v>
       </c>
+      <c r="J8" t="n">
+        <v>66927.86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -712,6 +738,9 @@
       <c r="I9" t="n">
         <v>12120.56</v>
       </c>
+      <c r="J9" t="n">
+        <v>12972.78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -741,6 +770,9 @@
       <c r="I10" t="n">
         <v>11011.93</v>
       </c>
+      <c r="J10" t="n">
+        <v>11853.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -772,6 +804,9 @@
       <c r="I11" t="n">
         <v>118.04</v>
       </c>
+      <c r="J11" t="n">
+        <v>104.46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -803,6 +838,9 @@
       <c r="I12" t="n">
         <v>21111.83</v>
       </c>
+      <c r="J12" t="n">
+        <v>21094.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -834,6 +872,9 @@
       <c r="I13" t="n">
         <v>3501.02</v>
       </c>
+      <c r="J13" t="n">
+        <v>3500.34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +906,9 @@
       <c r="I14" t="n">
         <v>697.62</v>
       </c>
+      <c r="J14" t="n">
+        <v>697.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -896,6 +940,9 @@
       <c r="I15" t="n">
         <v>10125.45</v>
       </c>
+      <c r="J15" t="n">
+        <v>10124.27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -927,98 +974,128 @@
       <c r="I16" t="n">
         <v>18270.86</v>
       </c>
+      <c r="J16" t="n">
+        <v>18285.42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14407.88</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33192.71</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49429.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>106275.43</v>
-      </c>
-      <c r="F17" t="n">
-        <v>106441.65</v>
-      </c>
-      <c r="G17" t="n">
-        <v>106649.24</v>
-      </c>
-      <c r="H17" t="n">
-        <v>106468.31</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106556.11</v>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1702.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13633.15</v>
+        <v>14407.88</v>
       </c>
       <c r="C18" t="n">
-        <v>12815.81</v>
+        <v>33192.71</v>
       </c>
       <c r="D18" t="n">
-        <v>14120.28</v>
+        <v>49429.1</v>
       </c>
       <c r="E18" t="n">
-        <v>18164.98</v>
+        <v>106275.43</v>
       </c>
       <c r="F18" t="n">
-        <v>18110.84</v>
+        <v>106441.65</v>
       </c>
       <c r="G18" t="n">
-        <v>18412.13</v>
+        <v>106649.24</v>
       </c>
       <c r="H18" t="n">
-        <v>18988.81</v>
+        <v>106468.31</v>
       </c>
       <c r="I18" t="n">
-        <v>19164.16</v>
+        <v>106556.11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>92108.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13633.15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12815.81</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14120.28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18164.98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18110.84</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18412.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18988.81</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19164.16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17383.39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>218130.32</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>128158.14</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>225924.56</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>290639.68</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>289773.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>294594.14</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>303820.98</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>306626.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>295517.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>3765.4</v>
       </c>
+      <c r="K2" t="n">
+        <v>3774.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>13324.43</v>
       </c>
+      <c r="K3" t="n">
+        <v>13320.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>13232.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13226.71</v>
       </c>
     </row>
     <row r="5">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>24488.52</v>
       </c>
+      <c r="K5" t="n">
+        <v>24474.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +662,9 @@
       <c r="J6" t="n">
         <v>359.95</v>
       </c>
+      <c r="K6" t="n">
+        <v>360.22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>974.37</v>
       </c>
+      <c r="K7" t="n">
+        <v>975.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -709,6 +732,9 @@
       <c r="J8" t="n">
         <v>66927.86</v>
       </c>
+      <c r="K8" t="n">
+        <v>66923.94</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -741,6 +767,9 @@
       <c r="J9" t="n">
         <v>12972.78</v>
       </c>
+      <c r="K9" t="n">
+        <v>16740.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -773,6 +802,9 @@
       <c r="J10" t="n">
         <v>11853.84</v>
       </c>
+      <c r="K10" t="n">
+        <v>15373.92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -807,6 +839,9 @@
       <c r="J11" t="n">
         <v>104.46</v>
       </c>
+      <c r="K11" t="n">
+        <v>101.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -841,6 +876,9 @@
       <c r="J12" t="n">
         <v>21094.23</v>
       </c>
+      <c r="K12" t="n">
+        <v>21092.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -875,6 +913,9 @@
       <c r="J13" t="n">
         <v>3500.34</v>
       </c>
+      <c r="K13" t="n">
+        <v>3500.37</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +950,9 @@
       <c r="J14" t="n">
         <v>697.4</v>
       </c>
+      <c r="K14" t="n">
+        <v>696.4299999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -943,6 +987,9 @@
       <c r="J15" t="n">
         <v>10124.27</v>
       </c>
+      <c r="K15" t="n">
+        <v>10128.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -976,6 +1023,9 @@
       </c>
       <c r="J16" t="n">
         <v>18285.42</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18306.91</v>
       </c>
     </row>
     <row r="17">
@@ -995,6 +1045,9 @@
       <c r="J17" t="n">
         <v>1702.66</v>
       </c>
+      <c r="K17" t="n">
+        <v>1706.07</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1029,6 +1082,9 @@
       <c r="J18" t="n">
         <v>92108.89</v>
       </c>
+      <c r="K18" t="n">
+        <v>92101.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1063,6 +1119,9 @@
       <c r="J19" t="n">
         <v>17383.39</v>
       </c>
+      <c r="K19" t="n">
+        <v>17811.92</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1096,6 +1155,9 @@
       </c>
       <c r="J20" t="n">
         <v>295517.66</v>
+      </c>
+      <c r="K20" t="n">
+        <v>302802.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>3774.1</v>
       </c>
+      <c r="L2" t="n">
+        <v>3766.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>13320.17</v>
       </c>
+      <c r="L3" t="n">
+        <v>13333.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -594,6 +605,9 @@
       </c>
       <c r="K4" t="n">
         <v>13226.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10151.13</v>
       </c>
     </row>
     <row r="5">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>24474.19</v>
       </c>
+      <c r="L5" t="n">
+        <v>24481.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +682,9 @@
       <c r="K6" t="n">
         <v>360.22</v>
       </c>
+      <c r="L6" t="n">
+        <v>360.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>975.7</v>
       </c>
+      <c r="L7" t="n">
+        <v>973.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -735,6 +758,9 @@
       <c r="K8" t="n">
         <v>66923.94</v>
       </c>
+      <c r="L8" t="n">
+        <v>64050.45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -770,6 +796,9 @@
       <c r="K9" t="n">
         <v>16740.46</v>
       </c>
+      <c r="L9" t="n">
+        <v>16072.69</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -805,6 +834,9 @@
       <c r="K10" t="n">
         <v>15373.92</v>
       </c>
+      <c r="L10" t="n">
+        <v>14945.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -842,6 +874,9 @@
       <c r="K11" t="n">
         <v>101.4</v>
       </c>
+      <c r="L11" t="n">
+        <v>100.12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -879,6 +914,9 @@
       <c r="K12" t="n">
         <v>21092.47</v>
       </c>
+      <c r="L12" t="n">
+        <v>21919.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -916,6 +954,9 @@
       <c r="K13" t="n">
         <v>3500.37</v>
       </c>
+      <c r="L13" t="n">
+        <v>3500.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +994,9 @@
       <c r="K14" t="n">
         <v>696.4299999999999</v>
       </c>
+      <c r="L14" t="n">
+        <v>695.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -990,6 +1034,9 @@
       <c r="K15" t="n">
         <v>10128.15</v>
       </c>
+      <c r="L15" t="n">
+        <v>10124.72</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1026,6 +1073,9 @@
       </c>
       <c r="K16" t="n">
         <v>18306.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18304.56</v>
       </c>
     </row>
     <row r="17">
@@ -1048,6 +1098,9 @@
       <c r="K17" t="n">
         <v>1706.07</v>
       </c>
+      <c r="L17" t="n">
+        <v>1700.38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1085,6 +1138,9 @@
       <c r="K18" t="n">
         <v>92101.48</v>
       </c>
+      <c r="L18" t="n">
+        <v>60703.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1122,6 +1178,9 @@
       <c r="K19" t="n">
         <v>17811.92</v>
       </c>
+      <c r="L19" t="n">
+        <v>15599.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1158,6 +1217,9 @@
       </c>
       <c r="K20" t="n">
         <v>302802.69</v>
+      </c>
+      <c r="L20" t="n">
+        <v>265184.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>3766.96</v>
       </c>
+      <c r="M2" t="n">
+        <v>3772.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>13333.05</v>
       </c>
+      <c r="M3" t="n">
+        <v>13324.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,6 +619,9 @@
       </c>
       <c r="L4" t="n">
         <v>10151.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10153.63</v>
       </c>
     </row>
     <row r="5">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>24481.87</v>
       </c>
+      <c r="M5" t="n">
+        <v>24474.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +702,9 @@
       <c r="L6" t="n">
         <v>360.23</v>
       </c>
+      <c r="M6" t="n">
+        <v>360.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>973.99</v>
       </c>
+      <c r="M7" t="n">
+        <v>974.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -761,6 +784,9 @@
       <c r="L8" t="n">
         <v>64050.45</v>
       </c>
+      <c r="M8" t="n">
+        <v>64020.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -799,6 +825,9 @@
       <c r="L9" t="n">
         <v>16072.69</v>
       </c>
+      <c r="M9" t="n">
+        <v>16076.07</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -837,6 +866,9 @@
       <c r="L10" t="n">
         <v>14945.22</v>
       </c>
+      <c r="M10" t="n">
+        <v>14939.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -877,6 +909,9 @@
       <c r="L11" t="n">
         <v>100.12</v>
       </c>
+      <c r="M11" t="n">
+        <v>98.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -917,6 +952,9 @@
       <c r="L12" t="n">
         <v>21919.63</v>
       </c>
+      <c r="M12" t="n">
+        <v>21091.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -957,6 +995,9 @@
       <c r="L13" t="n">
         <v>3500.44</v>
       </c>
+      <c r="M13" t="n">
+        <v>2999.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -997,6 +1038,9 @@
       <c r="L14" t="n">
         <v>695.9</v>
       </c>
+      <c r="M14" t="n">
+        <v>703.6799999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1037,6 +1081,9 @@
       <c r="L15" t="n">
         <v>10124.72</v>
       </c>
+      <c r="M15" t="n">
+        <v>10126.76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1076,6 +1123,9 @@
       </c>
       <c r="L16" t="n">
         <v>18304.56</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18287.71</v>
       </c>
     </row>
     <row r="17">
@@ -1101,6 +1151,9 @@
       <c r="L17" t="n">
         <v>1700.38</v>
       </c>
+      <c r="M17" t="n">
+        <v>1305.47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1141,6 +1194,9 @@
       <c r="L18" t="n">
         <v>60703.52</v>
       </c>
+      <c r="M18" t="n">
+        <v>60829.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1181,6 +1237,9 @@
       <c r="L19" t="n">
         <v>15599.11</v>
       </c>
+      <c r="M19" t="n">
+        <v>15502.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1220,6 +1279,9 @@
       </c>
       <c r="L20" t="n">
         <v>265184.86</v>
+      </c>
+      <c r="M20" t="n">
+        <v>263537.74</v>
       </c>
     </row>
   </sheetData>
